--- a/Data/Raw/New Microsoft Excel Worksheet.xlsx
+++ b/Data/Raw/New Microsoft Excel Worksheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KatarzynaBocian(2399\Desktop\BDA\masterThesis\Data\Raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2AF03-5AA2-440E-9F42-9DD59B29A2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,182 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+  <si>
+    <t>Sektor</t>
+  </si>
+  <si>
+    <r>
+      <t>Emisje CO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> [Mg] / CO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>e [Mg]</t>
+    </r>
+  </si>
+  <si>
+    <t>Energia elektryczna</t>
+  </si>
+  <si>
+    <t>Ciepło/chłód</t>
+  </si>
+  <si>
+    <t>Paliwa kopalne</t>
+  </si>
+  <si>
+    <t>Odnawialne źródła energii</t>
+  </si>
+  <si>
+    <t>Razem</t>
+  </si>
+  <si>
+    <t>Gaz ziemny</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Olej opałowy</t>
+  </si>
+  <si>
+    <t>Olej napędowy</t>
+  </si>
+  <si>
+    <t>Benzyna</t>
+  </si>
+  <si>
+    <t>Węgiel brunatny</t>
+  </si>
+  <si>
+    <t>Węgiel kamienny</t>
+  </si>
+  <si>
+    <t>Inne paliwa kopalne</t>
+  </si>
+  <si>
+    <t>Olej roślinny</t>
+  </si>
+  <si>
+    <t>Biopaliwa</t>
+  </si>
+  <si>
+    <t>Inna biomasa</t>
+  </si>
+  <si>
+    <t>Solarna cieplna</t>
+  </si>
+  <si>
+    <t>Geotermia</t>
+  </si>
+  <si>
+    <t>BUDYNKI , WYPOSAŻENIE/URZĄDZENIA I PRZEMYSŁ</t>
+  </si>
+  <si>
+    <t>Budynki, wyposażenie/urządzenia komunalne</t>
+  </si>
+  <si>
+    <t>Budynki, wyposażenie/urządzenia usługowe (niekomunalne)\</t>
+  </si>
+  <si>
+    <t>Budynki mieszkalne</t>
+  </si>
+  <si>
+    <t>Oświetlenie publiczne</t>
+  </si>
+  <si>
+    <t>Przemysł</t>
+  </si>
+  <si>
+    <t>Non-ETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETS </t>
+  </si>
+  <si>
+    <t>Suma częściowa</t>
+  </si>
+  <si>
+    <t>TRANSPORT</t>
+  </si>
+  <si>
+    <t>Pojazdy gminne</t>
+  </si>
+  <si>
+    <t>Transport publiczny gminny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport prywatny i komercyjny  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INNE </t>
+  </si>
+  <si>
+    <t>Rolnictwo, leśnictwo, rybołówstwo</t>
+  </si>
+  <si>
+    <t>INNE NIE ZWIĄZANE Z ENERGIĄ</t>
+  </si>
+  <si>
+    <t>Gospodarka odpadami</t>
+  </si>
+  <si>
+    <t>Gospodarka wodno-ściekowa</t>
+  </si>
+  <si>
+    <t>Inne</t>
+  </si>
+  <si>
+    <t>RAZEM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +207,102 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66AACD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003366"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEBE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -45,15 +310,515 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 6" xfId="1" xr:uid="{67B258C2-75CE-428B-9CB9-E59E28F7BCDB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +1095,998 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="40.200000000000003" thickBot="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19">
+        <v>32898</v>
+      </c>
+      <c r="D5" s="19">
+        <v>64217</v>
+      </c>
+      <c r="E5" s="19">
+        <v>7301</v>
+      </c>
+      <c r="F5" s="19">
+        <v>23</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1063</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19">
+        <v>160</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="R5" s="20">
+        <v>105662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="26.4">
+      <c r="A6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="19">
+        <v>764194</v>
+      </c>
+      <c r="D6" s="19">
+        <v>194721</v>
+      </c>
+      <c r="E6" s="19">
+        <v>57447</v>
+      </c>
+      <c r="F6" s="19">
+        <v>342</v>
+      </c>
+      <c r="G6" s="19">
+        <v>7551</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="19">
+        <v>2932</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20">
+        <v>1027187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="19">
+        <v>451972</v>
+      </c>
+      <c r="D7" s="19">
+        <v>532449</v>
+      </c>
+      <c r="E7" s="19">
+        <v>249905</v>
+      </c>
+      <c r="F7" s="19">
+        <v>7564</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1017</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>237923</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <v>18939</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="20">
+        <v>1499769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="19">
+        <v>24154</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>101</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20">
+        <v>24255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="23"/>
+      <c r="B11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="19">
+        <v>485363</v>
+      </c>
+      <c r="D11" s="19">
+        <v>36053</v>
+      </c>
+      <c r="E11" s="19">
+        <v>60289</v>
+      </c>
+      <c r="F11" s="19">
+        <v>61</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2736</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
+        <v>38547</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="27">
+        <v>623049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30">
+        <v>1758581</v>
+      </c>
+      <c r="D12" s="30">
+        <v>827440</v>
+      </c>
+      <c r="E12" s="30">
+        <v>375043</v>
+      </c>
+      <c r="F12" s="30">
+        <v>7990</v>
+      </c>
+      <c r="G12" s="30">
+        <v>12367</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0</v>
+      </c>
+      <c r="K12" s="30">
+        <v>237923</v>
+      </c>
+      <c r="L12" s="30">
+        <v>41639</v>
+      </c>
+      <c r="M12" s="30">
+        <v>0</v>
+      </c>
+      <c r="N12" s="30">
+        <v>0</v>
+      </c>
+      <c r="O12" s="30">
+        <v>18939</v>
+      </c>
+      <c r="P12" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>0</v>
+      </c>
+      <c r="R12" s="20">
+        <v>3279922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="33"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>4</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="19">
+        <v>0</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="19">
+        <v>49941</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>26827</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0</v>
+      </c>
+      <c r="N15" s="19">
+        <v>0</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>0</v>
+      </c>
+      <c r="R15" s="20">
+        <v>76768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="19">
+        <v>13891</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>591</v>
+      </c>
+      <c r="F16" s="19">
+        <v>56104</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>546823</v>
+      </c>
+      <c r="I16" s="19">
+        <v>421959</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <v>0</v>
+      </c>
+      <c r="M16" s="19">
+        <v>0</v>
+      </c>
+      <c r="N16" s="19">
+        <v>0</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0</v>
+      </c>
+      <c r="P16" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>0</v>
+      </c>
+      <c r="R16" s="20">
+        <v>1039368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30">
+        <v>63832</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30">
+        <v>591</v>
+      </c>
+      <c r="F17" s="30">
+        <v>56104</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30">
+        <v>573650</v>
+      </c>
+      <c r="I17" s="30">
+        <v>421963</v>
+      </c>
+      <c r="J17" s="30">
+        <v>0</v>
+      </c>
+      <c r="K17" s="30">
+        <v>0</v>
+      </c>
+      <c r="L17" s="30">
+        <v>0</v>
+      </c>
+      <c r="M17" s="30">
+        <v>0</v>
+      </c>
+      <c r="N17" s="30">
+        <v>0</v>
+      </c>
+      <c r="O17" s="30">
+        <v>0</v>
+      </c>
+      <c r="P17" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>0</v>
+      </c>
+      <c r="R17" s="20">
+        <v>1116140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>767</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2887</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="20">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="20">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="20">
+        <v>12161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="20">
+        <v>-8677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" thickBot="1">
+      <c r="A24" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50">
+        <v>1822413</v>
+      </c>
+      <c r="D24" s="50">
+        <v>827440</v>
+      </c>
+      <c r="E24" s="50">
+        <v>376401</v>
+      </c>
+      <c r="F24" s="50">
+        <v>64094</v>
+      </c>
+      <c r="G24" s="50">
+        <v>12367</v>
+      </c>
+      <c r="H24" s="50">
+        <v>576537</v>
+      </c>
+      <c r="I24" s="50">
+        <v>421963</v>
+      </c>
+      <c r="J24" s="50">
+        <v>0</v>
+      </c>
+      <c r="K24" s="50">
+        <v>237923</v>
+      </c>
+      <c r="L24" s="50">
+        <v>41639</v>
+      </c>
+      <c r="M24" s="50">
+        <v>0</v>
+      </c>
+      <c r="N24" s="50">
+        <v>0</v>
+      </c>
+      <c r="O24" s="50">
+        <v>18939</v>
+      </c>
+      <c r="P24" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="50">
+        <v>0</v>
+      </c>
+      <c r="R24" s="51">
+        <v>4407506</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>